--- a/Fileoutput/Hybridresults.xlsx
+++ b/Fileoutput/Hybridresults.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8300"/>
   </bookViews>
   <sheets>
     <sheet name="MasterTestCases" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="90">
   <si>
     <t>TCID</t>
   </si>
@@ -174,13 +174,130 @@
     <t>closeBrowser</t>
   </si>
   <si>
+    <t>Wait for stock item link</t>
+  </si>
+  <si>
+    <t>Click Stock items link</t>
+  </si>
+  <si>
+    <t>//a[text()='Stock Items ']</t>
+  </si>
+  <si>
+    <t>Wait for Add Icon</t>
+  </si>
+  <si>
+    <t>Click Add icon</t>
+  </si>
+  <si>
+    <t>(//span[@data-caption='Add'])[1]</t>
+  </si>
+  <si>
+    <t>Wait for Category Listbox</t>
+  </si>
+  <si>
+    <t>Select item in Category</t>
+  </si>
+  <si>
+    <t>dropDownAction</t>
+  </si>
+  <si>
+    <t>Seelct item in Supplier Number</t>
+  </si>
+  <si>
+    <t>x_Category</t>
+  </si>
+  <si>
+    <t>//select[@id='x_Category']</t>
+  </si>
+  <si>
+    <t>x_Supplier_Number</t>
+  </si>
+  <si>
+    <t>Capture Stock number</t>
+  </si>
+  <si>
+    <t>captureStock</t>
+  </si>
+  <si>
+    <t>x_Stock_Number</t>
+  </si>
+  <si>
+    <t>Enter Stcok name</t>
+  </si>
+  <si>
+    <t>Puzzels</t>
+  </si>
+  <si>
+    <t>x_Stock_Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select item in Unit Of Measurement </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter Purchasing Price </t>
+  </si>
+  <si>
+    <t>Enter Selling Price</t>
+  </si>
+  <si>
+    <t>Enter notes</t>
+  </si>
+  <si>
+    <t>Selling Puzzles</t>
+  </si>
+  <si>
+    <t>x_Purchasing_Price</t>
+  </si>
+  <si>
+    <t>x_Unit_Of_Measurement</t>
+  </si>
+  <si>
+    <t>x_Selling_Price</t>
+  </si>
+  <si>
+    <t>x_Notes</t>
+  </si>
+  <si>
+    <t>Click add button</t>
+  </si>
+  <si>
+    <t>btnAction</t>
+  </si>
+  <si>
+    <t>Verify Stock Number</t>
+  </si>
+  <si>
+    <t>stockTable</t>
+  </si>
+  <si>
+    <t>Wait for Confirm ok button</t>
+  </si>
+  <si>
+    <t>Click Confirm ok button</t>
+  </si>
+  <si>
+    <t>//button[normalize-space()='OK!']</t>
+  </si>
+  <si>
+    <t>Wait for alert ok</t>
+  </si>
+  <si>
+    <t>Click Alert ok</t>
+  </si>
+  <si>
+    <t>(//button[starts-with(text(),'OK')])[6]</t>
+  </si>
+  <si>
+    <t>Blocked</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
     <t>pass</t>
   </si>
   <si>
-    <t>Blocked</t>
+    <t>fail</t>
   </si>
 </sst>
 </file>
@@ -188,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="67" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,127 +349,361 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <b val="true"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
       <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -408,12 +759,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -437,6 +790,45 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -719,8 +1111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -752,10 +1144,10 @@
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" x14ac:dyDescent="1">
@@ -766,10 +1158,10 @@
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" x14ac:dyDescent="1">
@@ -783,7 +1175,7 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" x14ac:dyDescent="1">
@@ -797,7 +1189,7 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -810,8 +1202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -859,9 +1251,7 @@
       <c r="E2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F2" t="s">
-        <v>49</v>
-      </c>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.8">
       <c r="A3" s="4" t="s">
@@ -879,9 +1269,7 @@
       <c r="E3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F3" t="s">
-        <v>49</v>
-      </c>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.8">
       <c r="A4" s="4" t="s">
@@ -899,9 +1287,7 @@
       <c r="E4" s="4">
         <v>10</v>
       </c>
-      <c r="F4" t="s">
-        <v>49</v>
-      </c>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.8">
       <c r="A5" s="4" t="s">
@@ -919,9 +1305,7 @@
       <c r="E5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F5" t="s">
-        <v>49</v>
-      </c>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.8">
       <c r="A6" s="4" t="s">
@@ -939,9 +1323,7 @@
       <c r="E6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F6" t="s">
-        <v>49</v>
-      </c>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.8">
       <c r="A7" s="4" t="s">
@@ -959,9 +1341,7 @@
       <c r="E7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F7" t="s">
-        <v>49</v>
-      </c>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.8">
       <c r="A8" s="4" t="s">
@@ -979,9 +1359,7 @@
       <c r="E8" s="4">
         <v>10</v>
       </c>
-      <c r="F8" t="s">
-        <v>49</v>
-      </c>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.8">
       <c r="A9" s="4" t="s">
@@ -999,9 +1377,7 @@
       <c r="E9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F9" t="s">
-        <v>49</v>
-      </c>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.8">
       <c r="A10" s="4" t="s">
@@ -1019,9 +1395,7 @@
       <c r="E10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F10" t="s">
-        <v>49</v>
-      </c>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.8">
       <c r="A11" s="4" t="s">
@@ -1039,9 +1413,7 @@
       <c r="E11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F11" t="s">
-        <v>49</v>
-      </c>
+      <c r="F11" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1050,19 +1422,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.7265625"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="34.1796875"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="16.6328125"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="17.953125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="19.1796875"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.26953125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="33.953125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="28.6328125"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="9.58984375"/>
   </cols>
   <sheetData>
@@ -1084,6 +1457,586 @@
       </c>
       <c r="F1" s="3" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="4">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="4">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="6">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="6">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="6">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A16" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="6">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A17" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A18" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A19" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A20" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="5">
+        <v>300000</v>
+      </c>
+      <c r="F20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A21" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="5">
+        <v>500000</v>
+      </c>
+      <c r="F21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A22" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A23" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A24" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="5">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A25" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A26" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="5">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A27" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A28" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A29" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A30" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/Fileoutput/Hybridresults.xlsx
+++ b/Fileoutput/Hybridresults.xlsx
@@ -16,7 +16,7 @@
     <sheet name="ApplicationLogin" sheetId="2" r:id="rId2"/>
     <sheet name="StocckItems" sheetId="3" r:id="rId3"/>
     <sheet name="Suppliers" sheetId="4" r:id="rId4"/>
-    <sheet name="Cusstomers" sheetId="5" r:id="rId5"/>
+    <sheet name="Customers" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="144">
   <si>
     <t>TCID</t>
   </si>
@@ -63,15 +63,9 @@
     <t>Suppliers</t>
   </si>
   <si>
-    <t>Cusstomers</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -288,7 +282,175 @@
     <t>(//button[starts-with(text(),'OK')])[6]</t>
   </si>
   <si>
-    <t>Blocked</t>
+    <t>Wait for Supplier link</t>
+  </si>
+  <si>
+    <t>Click Supplier link</t>
+  </si>
+  <si>
+    <t>(//a[starts-with(text(),'Suppliers')])[2]</t>
+  </si>
+  <si>
+    <t>Wait for supplier number</t>
+  </si>
+  <si>
+    <t>capture supplier number</t>
+  </si>
+  <si>
+    <t>capturesup</t>
+  </si>
+  <si>
+    <t>Enter supplier name</t>
+  </si>
+  <si>
+    <t>Enter address</t>
+  </si>
+  <si>
+    <t>Enter City</t>
+  </si>
+  <si>
+    <t>Enter Contact person</t>
+  </si>
+  <si>
+    <t>Enter Country</t>
+  </si>
+  <si>
+    <t>Enter phone number</t>
+  </si>
+  <si>
+    <t>Enter Email</t>
+  </si>
+  <si>
+    <t>Enter Mobile number</t>
+  </si>
+  <si>
+    <t>Enter Notes</t>
+  </si>
+  <si>
+    <t>Click Add button</t>
+  </si>
+  <si>
+    <t>Verify Supplier number</t>
+  </si>
+  <si>
+    <t>suppliertable</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Supplier_Name']</t>
+  </si>
+  <si>
+    <t>//textarea[@id='x_Address']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_City']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Country']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Contact_Person']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Phone_Number']</t>
+  </si>
+  <si>
+    <t>//input[@id='x__Email']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Mobile_Number']</t>
+  </si>
+  <si>
+    <t>//textarea[@id='x_Notes']</t>
+  </si>
+  <si>
+    <t>Akhilesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ameerpet,201,flat,beside satyam </t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>QedgeTech</t>
+  </si>
+  <si>
+    <t>6547896547</t>
+  </si>
+  <si>
+    <t>Test@gmail.com</t>
+  </si>
+  <si>
+    <t>6214789545</t>
+  </si>
+  <si>
+    <t>Iam Supplying lg goods</t>
+  </si>
+  <si>
+    <t>Customers</t>
+  </si>
+  <si>
+    <t>Wait for Customer number</t>
+  </si>
+  <si>
+    <t>capture Customer number</t>
+  </si>
+  <si>
+    <t>capturecus</t>
+  </si>
+  <si>
+    <t>customertable</t>
+  </si>
+  <si>
+    <t>Wait for Customer link</t>
+  </si>
+  <si>
+    <t>Click Customer link</t>
+  </si>
+  <si>
+    <t>Enter Customer name</t>
+  </si>
+  <si>
+    <t>Verify Customer number</t>
+  </si>
+  <si>
+    <t>(//a[contains(text(),'Customers')])[2]</t>
+  </si>
+  <si>
+    <t>x_Customer_Number</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Customer_Name']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Notes']</t>
+  </si>
+  <si>
+    <t>Ranguandsita</t>
+  </si>
+  <si>
+    <t>madanapalli</t>
+  </si>
+  <si>
+    <t>Anantapur</t>
+  </si>
+  <si>
+    <t>Qedgetech</t>
+  </si>
+  <si>
+    <t>test@gmail.com</t>
+  </si>
+  <si>
+    <t>65547789541</t>
+  </si>
+  <si>
+    <t>3214569832</t>
+  </si>
+  <si>
+    <t>Iam Customer</t>
   </si>
   <si>
     <t/>
@@ -305,7 +467,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="67" x14ac:knownFonts="1">
+  <fonts count="211" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,10 +508,132 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="12"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -709,13 +993,757 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <b val="true"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="12"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
     </font>
   </fonts>
   <fills count="3">
@@ -756,10 +1784,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="214">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -767,7 +1796,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -829,8 +1859,153 @@
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="148" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="156" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="163" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="164" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="171" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="173" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="179" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="180" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="181" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="182" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="187" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="194" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="195" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="196" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="197" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="198" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="201" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="202" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="203" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="209" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1112,7 +2287,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -1144,10 +2319,10 @@
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" x14ac:dyDescent="1">
@@ -1158,10 +2333,10 @@
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" x14ac:dyDescent="1">
@@ -1172,10 +2347,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" x14ac:dyDescent="1">
@@ -1183,13 +2358,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1217,19 +2392,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="23.5" x14ac:dyDescent="1.1000000000000001">
       <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>3</v>
@@ -1237,183 +2412,203 @@
     </row>
     <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.8">
       <c r="A2" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.8">
       <c r="A3" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.8">
       <c r="A4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="E4" s="4">
         <v>10</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.8">
       <c r="A5" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="4"/>
+      <c r="F5" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.8">
       <c r="A6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="4"/>
+      <c r="F6" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.8">
       <c r="A7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="E7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.8">
       <c r="A8" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E8" s="4">
         <v>10</v>
       </c>
-      <c r="F8" s="4"/>
+      <c r="F8" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.8">
       <c r="A9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="4"/>
+      <c r="F9" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.8">
       <c r="A10" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.8">
       <c r="A11" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
+        <v>142</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1425,8 +2620,8 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8:B26"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A29" sqref="A29:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -1441,19 +2636,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="23.5" x14ac:dyDescent="1.1000000000000001">
       <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>3</v>
@@ -1461,582 +2656,582 @@
     </row>
     <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.8">
       <c r="A2" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>88</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.8">
       <c r="A3" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>88</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.8">
       <c r="A4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="E4" s="4">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>88</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.8">
       <c r="A5" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="F5" t="s">
-        <v>88</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.8">
       <c r="A6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="F6" t="s">
-        <v>88</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.8">
       <c r="A7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="E7" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.8">
       <c r="A8" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E8" s="4">
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.8">
       <c r="A9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="F9" t="s">
-        <v>88</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.8">
       <c r="A10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="E10" s="6">
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>88</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.8">
       <c r="A11" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>88</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.8">
       <c r="A12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="E12" s="6">
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>88</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.8">
       <c r="A13" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>88</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.8">
       <c r="A14" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E14" s="6">
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>88</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.8">
       <c r="A15" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E15" s="5">
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>88</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.8">
       <c r="A16" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E16" s="6">
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>88</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.8">
       <c r="A17" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>63</v>
-      </c>
       <c r="E17" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F17" t="s">
-        <v>88</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.8">
       <c r="A18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>66</v>
-      </c>
       <c r="E18" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F18" t="s">
-        <v>88</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.8">
       <c r="A19" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E19" s="5">
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>88</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.8">
       <c r="A20" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E20" s="5">
         <v>300000</v>
       </c>
       <c r="F20" t="s">
-        <v>88</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.8">
       <c r="A21" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E21" s="5">
         <v>500000</v>
       </c>
       <c r="F21" t="s">
-        <v>88</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.8">
       <c r="A22" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F22" t="s">
-        <v>88</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.8">
       <c r="A23" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F23" t="s">
-        <v>88</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.8">
       <c r="A24" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="E24" s="5">
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.8">
       <c r="A25" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F25" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.8">
       <c r="A26" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="E26" s="5">
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>88</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.8">
       <c r="A27" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F27" t="s">
-        <v>88</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.8">
       <c r="A28" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F28" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.8">
       <c r="A29" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F29" t="s">
-        <v>88</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.8">
       <c r="A30" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F30" t="s">
-        <v>88</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2046,85 +3241,1333 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.7265625"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="23.90625"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="16.6328125"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="17.953125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="19.1796875"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.26953125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="35.58984375"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="28.6328125"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="9.58984375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.5" x14ac:dyDescent="1.1000000000000001">
       <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="4">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="4">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A10" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="4">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A11" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="4">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A14" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="4">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A15" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A16" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A17" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A18" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A19" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A20" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A21" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A22" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A23" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F23" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A24" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A25" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A26" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" s="5">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A27" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A28" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" s="5">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A29" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A30" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A31" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A32" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" t="s">
+        <v>142</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E22" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.7265625"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="25.6796875"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="16.6328125"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="17.953125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="19.1796875"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.26953125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="33.953125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="28.6328125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.5" x14ac:dyDescent="1.1000000000000001">
       <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="4">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="4">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A10" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" s="4">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A11" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="4">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A14" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" s="4">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A15" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A16" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A17" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A18" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A19" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A20" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A21" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A22" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A23" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F23" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A24" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A25" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A26" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" s="5">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A27" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A28" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" s="5">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A29" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A30" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A31" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A32" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" t="s">
+        <v>142</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E22" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>